--- a/data/stat probs/kris dunn stat probs - condition.xlsx
+++ b/data/stat probs/kris dunn stat probs - condition.xlsx
@@ -19,18 +19,18 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="0 before 2023 full" sheetId="10" state="visible" r:id="rId10"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1 after 2023 regular" sheetId="11" state="visible" r:id="rId11"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1 after 2023 full" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sun 2023 regular" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sun 2023 full" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="den 2023 regular" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="den 2023 full" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1 before 2023 regular" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1 before 2023 full" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 after 2023 regular" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 after 2023 full" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="okc 2023 regular" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="okc 2023 full" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 before 2023 regular" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 before 2023 full" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="den 2023 regular" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="den 2023 full" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1 before 2023 regular" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1 before 2023 full" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 after 2023 regular" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 after 2023 full" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="okc 2023 regular" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="okc 2023 full" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 before 2023 regular" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 before 2023 full" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="tue 2023 regular" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="tue 2023 full" sheetId="24" state="visible" r:id="rId24"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bkn 2023 regular" sheetId="25" state="visible" r:id="rId25"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bkn 2023 full" sheetId="26" state="visible" r:id="rId26"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bos 2023 regular" sheetId="27" state="visible" r:id="rId27"/>
@@ -541,28 +541,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
@@ -1471,28 +1471,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -2401,28 +2401,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -3331,28 +3331,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -4198,7 +4198,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4261,22 +4261,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -4311,10 +4311,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4">
@@ -4331,10 +4331,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="F4" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>100</v>
@@ -4343,10 +4343,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>33</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5">
@@ -4363,10 +4363,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="F5" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>100</v>
@@ -4375,10 +4375,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>67</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6">
@@ -4395,16 +4395,16 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="F6" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="H6" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -4427,16 +4427,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="F7" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="H7" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -4459,16 +4459,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="F8" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="H8" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -4491,16 +4491,16 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="F9" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="H9" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -4523,16 +4523,16 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="F10" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="H10" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -4555,16 +4555,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H11" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -4587,16 +4587,16 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H12" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -4625,10 +4625,10 @@
         <v>100</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H13" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -4657,10 +4657,10 @@
         <v>100</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H14" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -4689,10 +4689,10 @@
         <v>100</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H15" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -4709,10 +4709,10 @@
         <v>14</v>
       </c>
       <c r="C16" t="n">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="D16" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -4721,10 +4721,10 @@
         <v>100</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H16" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -4741,10 +4741,10 @@
         <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="D17" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -4773,10 +4773,10 @@
         <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="D18" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -4805,10 +4805,10 @@
         <v>17</v>
       </c>
       <c r="C19" t="n">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="D19" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -4837,10 +4837,10 @@
         <v>18</v>
       </c>
       <c r="C20" t="n">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="D20" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -4869,10 +4869,10 @@
         <v>19</v>
       </c>
       <c r="C21" t="n">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="D21" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -4890,230 +4890,6 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>20</v>
-      </c>
-      <c r="C22" t="n">
-        <v>33</v>
-      </c>
-      <c r="D22" t="n">
-        <v>67</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>100</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>100</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>21</v>
-      </c>
-      <c r="C23" t="n">
-        <v>33</v>
-      </c>
-      <c r="D23" t="n">
-        <v>67</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>100</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>100</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>22</v>
-      </c>
-      <c r="C24" t="n">
-        <v>33</v>
-      </c>
-      <c r="D24" t="n">
-        <v>67</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>100</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>100</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>23</v>
-      </c>
-      <c r="C25" t="n">
-        <v>33</v>
-      </c>
-      <c r="D25" t="n">
-        <v>67</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>100</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>100</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>24</v>
-      </c>
-      <c r="C26" t="n">
-        <v>33</v>
-      </c>
-      <c r="D26" t="n">
-        <v>67</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>100</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>100</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>25</v>
-      </c>
-      <c r="C27" t="n">
-        <v>33</v>
-      </c>
-      <c r="D27" t="n">
-        <v>67</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
-        <v>100</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>100</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>26</v>
-      </c>
-      <c r="C28" t="n">
-        <v>33</v>
-      </c>
-      <c r="D28" t="n">
-        <v>67</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
-        <v>100</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>100</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
         <v>100</v>
       </c>
     </row>
@@ -5128,7 +4904,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5191,22 +4967,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -5241,10 +5017,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4">
@@ -5261,10 +5037,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="F4" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>100</v>
@@ -5273,10 +5049,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>33</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5">
@@ -5293,10 +5069,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="F5" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>100</v>
@@ -5305,10 +5081,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>67</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6">
@@ -5325,16 +5101,16 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="F6" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="H6" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -5357,16 +5133,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="F7" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="H7" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -5389,16 +5165,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="F8" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="H8" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -5421,16 +5197,16 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="F9" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="H9" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -5453,16 +5229,16 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="F10" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="H10" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -5485,16 +5261,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H11" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -5517,16 +5293,16 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H12" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -5555,10 +5331,10 @@
         <v>100</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H13" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -5587,10 +5363,10 @@
         <v>100</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H14" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -5619,10 +5395,10 @@
         <v>100</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H15" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -5639,10 +5415,10 @@
         <v>14</v>
       </c>
       <c r="C16" t="n">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="D16" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -5651,10 +5427,10 @@
         <v>100</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H16" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -5671,10 +5447,10 @@
         <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="D17" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -5703,10 +5479,10 @@
         <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="D18" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -5735,10 +5511,10 @@
         <v>17</v>
       </c>
       <c r="C19" t="n">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="D19" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -5767,10 +5543,10 @@
         <v>18</v>
       </c>
       <c r="C20" t="n">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="D20" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -5799,10 +5575,10 @@
         <v>19</v>
       </c>
       <c r="C21" t="n">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="D21" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -5820,230 +5596,6 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>20</v>
-      </c>
-      <c r="C22" t="n">
-        <v>33</v>
-      </c>
-      <c r="D22" t="n">
-        <v>67</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>100</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>100</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>21</v>
-      </c>
-      <c r="C23" t="n">
-        <v>33</v>
-      </c>
-      <c r="D23" t="n">
-        <v>67</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>100</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>100</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>22</v>
-      </c>
-      <c r="C24" t="n">
-        <v>33</v>
-      </c>
-      <c r="D24" t="n">
-        <v>67</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>100</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>100</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>23</v>
-      </c>
-      <c r="C25" t="n">
-        <v>33</v>
-      </c>
-      <c r="D25" t="n">
-        <v>67</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>100</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>100</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>24</v>
-      </c>
-      <c r="C26" t="n">
-        <v>33</v>
-      </c>
-      <c r="D26" t="n">
-        <v>67</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>100</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>100</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>25</v>
-      </c>
-      <c r="C27" t="n">
-        <v>33</v>
-      </c>
-      <c r="D27" t="n">
-        <v>67</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
-        <v>100</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>100</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>26</v>
-      </c>
-      <c r="C28" t="n">
-        <v>33</v>
-      </c>
-      <c r="D28" t="n">
-        <v>67</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
-        <v>100</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>100</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
         <v>100</v>
       </c>
     </row>
@@ -6121,22 +5673,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -6217,16 +5769,16 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E5" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G5" t="n">
         <v>100</v>
@@ -6249,16 +5801,16 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E6" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G6" t="n">
         <v>100</v>
@@ -6281,16 +5833,16 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E7" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G7" t="n">
         <v>100</v>
@@ -6313,16 +5865,16 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E8" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G8" t="n">
         <v>100</v>
@@ -6345,22 +5897,22 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E9" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G9" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -6377,22 +5929,22 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E10" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G10" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -6409,10 +5961,10 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -6421,10 +5973,10 @@
         <v>100</v>
       </c>
       <c r="G11" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -6441,10 +5993,10 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -6453,10 +6005,10 @@
         <v>100</v>
       </c>
       <c r="G12" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -6473,10 +6025,10 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -6485,10 +6037,10 @@
         <v>100</v>
       </c>
       <c r="G13" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -6505,10 +6057,10 @@
         <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -6517,10 +6069,10 @@
         <v>100</v>
       </c>
       <c r="G14" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -6537,10 +6089,10 @@
         <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -6549,10 +6101,10 @@
         <v>100</v>
       </c>
       <c r="G15" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -6569,10 +6121,10 @@
         <v>14</v>
       </c>
       <c r="C16" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -6581,10 +6133,10 @@
         <v>100</v>
       </c>
       <c r="G16" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -6601,10 +6153,10 @@
         <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -6633,10 +6185,10 @@
         <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -6665,10 +6217,10 @@
         <v>17</v>
       </c>
       <c r="C19" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -6697,10 +6249,10 @@
         <v>18</v>
       </c>
       <c r="C20" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -6729,10 +6281,10 @@
         <v>19</v>
       </c>
       <c r="C21" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -6827,22 +6379,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -6923,16 +6475,16 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E5" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G5" t="n">
         <v>100</v>
@@ -6955,16 +6507,16 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E6" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G6" t="n">
         <v>100</v>
@@ -6987,16 +6539,16 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E7" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G7" t="n">
         <v>100</v>
@@ -7019,16 +6571,16 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E8" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G8" t="n">
         <v>100</v>
@@ -7051,22 +6603,22 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E9" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G9" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -7083,22 +6635,22 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E10" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G10" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -7115,10 +6667,10 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -7127,10 +6679,10 @@
         <v>100</v>
       </c>
       <c r="G11" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -7147,10 +6699,10 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -7159,10 +6711,10 @@
         <v>100</v>
       </c>
       <c r="G12" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -7179,10 +6731,10 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -7191,10 +6743,10 @@
         <v>100</v>
       </c>
       <c r="G13" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -7211,10 +6763,10 @@
         <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -7223,10 +6775,10 @@
         <v>100</v>
       </c>
       <c r="G14" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -7243,10 +6795,10 @@
         <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -7255,10 +6807,10 @@
         <v>100</v>
       </c>
       <c r="G15" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -7275,10 +6827,10 @@
         <v>14</v>
       </c>
       <c r="C16" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -7287,10 +6839,10 @@
         <v>100</v>
       </c>
       <c r="G16" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -7307,10 +6859,10 @@
         <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -7339,10 +6891,10 @@
         <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -7371,10 +6923,10 @@
         <v>17</v>
       </c>
       <c r="C19" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -7403,10 +6955,10 @@
         <v>18</v>
       </c>
       <c r="C20" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -7435,10 +6987,10 @@
         <v>19</v>
       </c>
       <c r="C21" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -7470,7 +7022,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7533,28 +7085,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3">
@@ -7583,10 +7135,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="J3" t="n">
-        <v>100</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4">
@@ -7603,10 +7155,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G4" t="n">
         <v>100</v>
@@ -7615,10 +7167,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="J4" t="n">
-        <v>100</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5">
@@ -7629,16 +7181,16 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="D5" t="n">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="E5" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="F5" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="G5" t="n">
         <v>100</v>
@@ -7647,10 +7199,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J5" t="n">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6">
@@ -7661,22 +7213,22 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="D6" t="n">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="E6" t="n">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="F6" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="G6" t="n">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -7693,22 +7245,22 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="D7" t="n">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="E7" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F7" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="G7" t="n">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -7725,22 +7277,22 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="D8" t="n">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="E8" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F8" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="G8" t="n">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -7757,22 +7309,22 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="D9" t="n">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="E9" t="n">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="F9" t="n">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="G9" t="n">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="H9" t="n">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -7789,22 +7341,22 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="D10" t="n">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="E10" t="n">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="F10" t="n">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="G10" t="n">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="H10" t="n">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -7821,22 +7373,22 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="D11" t="n">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F11" t="n">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="G11" t="n">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="H11" t="n">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -7853,10 +7405,10 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="D12" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -7865,10 +7417,10 @@
         <v>100</v>
       </c>
       <c r="G12" t="n">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="H12" t="n">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -7885,10 +7437,10 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="D13" t="n">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -7897,10 +7449,10 @@
         <v>100</v>
       </c>
       <c r="G13" t="n">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="H13" t="n">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -7917,10 +7469,10 @@
         <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="D14" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -7929,10 +7481,10 @@
         <v>100</v>
       </c>
       <c r="G14" t="n">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="H14" t="n">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -7949,10 +7501,10 @@
         <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D15" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -7961,10 +7513,10 @@
         <v>100</v>
       </c>
       <c r="G15" t="n">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="H15" t="n">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -7993,10 +7545,10 @@
         <v>100</v>
       </c>
       <c r="G16" t="n">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="H16" t="n">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -8045,10 +7597,10 @@
         <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="D18" t="n">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -8077,10 +7629,10 @@
         <v>17</v>
       </c>
       <c r="C19" t="n">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="D19" t="n">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -8109,10 +7661,10 @@
         <v>18</v>
       </c>
       <c r="C20" t="n">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="D20" t="n">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -8141,10 +7693,10 @@
         <v>19</v>
       </c>
       <c r="C21" t="n">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D21" t="n">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -8162,6 +7714,102 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>6</v>
+      </c>
+      <c r="D22" t="n">
+        <v>94</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>100</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>100</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>6</v>
+      </c>
+      <c r="D23" t="n">
+        <v>94</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>100</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>100</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>6</v>
+      </c>
+      <c r="D24" t="n">
+        <v>94</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>100</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>100</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
         <v>100</v>
       </c>
     </row>
@@ -8176,7 +7824,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8239,28 +7887,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3">
@@ -8289,10 +7937,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="J3" t="n">
-        <v>100</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4">
@@ -8309,10 +7957,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G4" t="n">
         <v>100</v>
@@ -8321,10 +7969,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="J4" t="n">
-        <v>100</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5">
@@ -8335,16 +7983,16 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="D5" t="n">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="E5" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="F5" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="G5" t="n">
         <v>100</v>
@@ -8353,10 +8001,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J5" t="n">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6">
@@ -8367,22 +8015,22 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="D6" t="n">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="E6" t="n">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="F6" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="G6" t="n">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -8399,22 +8047,22 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="D7" t="n">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="E7" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F7" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="G7" t="n">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -8431,22 +8079,22 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="D8" t="n">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="E8" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F8" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="G8" t="n">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -8463,22 +8111,22 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="D9" t="n">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="E9" t="n">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="F9" t="n">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="G9" t="n">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="H9" t="n">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -8495,22 +8143,22 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="D10" t="n">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="E10" t="n">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="F10" t="n">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="G10" t="n">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="H10" t="n">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -8527,22 +8175,22 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="D11" t="n">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F11" t="n">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="G11" t="n">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="H11" t="n">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -8559,10 +8207,10 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="D12" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -8571,10 +8219,10 @@
         <v>100</v>
       </c>
       <c r="G12" t="n">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="H12" t="n">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -8591,10 +8239,10 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="D13" t="n">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -8603,10 +8251,10 @@
         <v>100</v>
       </c>
       <c r="G13" t="n">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="H13" t="n">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -8623,10 +8271,10 @@
         <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="D14" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -8635,10 +8283,10 @@
         <v>100</v>
       </c>
       <c r="G14" t="n">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="H14" t="n">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -8655,10 +8303,10 @@
         <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D15" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -8667,10 +8315,10 @@
         <v>100</v>
       </c>
       <c r="G15" t="n">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="H15" t="n">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -8699,10 +8347,10 @@
         <v>100</v>
       </c>
       <c r="G16" t="n">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="H16" t="n">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -8751,10 +8399,10 @@
         <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="D18" t="n">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -8783,10 +8431,10 @@
         <v>17</v>
       </c>
       <c r="C19" t="n">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="D19" t="n">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -8815,10 +8463,10 @@
         <v>18</v>
       </c>
       <c r="C20" t="n">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="D20" t="n">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -8847,10 +8495,10 @@
         <v>19</v>
       </c>
       <c r="C21" t="n">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D21" t="n">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -8868,6 +8516,102 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>6</v>
+      </c>
+      <c r="D22" t="n">
+        <v>94</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>100</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>100</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>6</v>
+      </c>
+      <c r="D23" t="n">
+        <v>94</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>100</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>100</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>6</v>
+      </c>
+      <c r="D24" t="n">
+        <v>94</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>100</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>100</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
         <v>100</v>
       </c>
     </row>
@@ -8945,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -8995,10 +8739,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="J3" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -9015,22 +8759,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="F4" t="n">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="G4" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I4" t="n">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="J4" t="n">
-        <v>81</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5">
@@ -9041,28 +8785,28 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="D5" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
+        <v>50</v>
+      </c>
+      <c r="F5" t="n">
+        <v>50</v>
+      </c>
+      <c r="G5" t="n">
         <v>75</v>
       </c>
-      <c r="F5" t="n">
+      <c r="H5" t="n">
         <v>25</v>
       </c>
-      <c r="G5" t="n">
-        <v>100</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="J5" t="n">
-        <v>94</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
@@ -9073,22 +8817,22 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="D6" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="F6" t="n">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="G6" t="n">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="H6" t="n">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -9105,22 +8849,22 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="D7" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F7" t="n">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G7" t="n">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="H7" t="n">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -9137,22 +8881,22 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="D8" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F8" t="n">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G8" t="n">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="H8" t="n">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -9169,22 +8913,22 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="D9" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F9" t="n">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="G9" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="H9" t="n">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -9201,22 +8945,22 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="D10" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="G10" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="H10" t="n">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -9233,22 +8977,22 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="D11" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="G11" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -9265,10 +9009,10 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="D12" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -9277,10 +9021,10 @@
         <v>100</v>
       </c>
       <c r="G12" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -9297,10 +9041,10 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="D13" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -9309,10 +9053,10 @@
         <v>100</v>
       </c>
       <c r="G13" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -9329,10 +9073,10 @@
         <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="D14" t="n">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -9341,10 +9085,10 @@
         <v>100</v>
       </c>
       <c r="G14" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -9361,10 +9105,10 @@
         <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D15" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -9373,10 +9117,10 @@
         <v>100</v>
       </c>
       <c r="G15" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -9405,10 +9149,10 @@
         <v>100</v>
       </c>
       <c r="G16" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -9457,10 +9201,10 @@
         <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="D18" t="n">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -9489,10 +9233,10 @@
         <v>17</v>
       </c>
       <c r="C19" t="n">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="D19" t="n">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -9521,10 +9265,10 @@
         <v>18</v>
       </c>
       <c r="C20" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D20" t="n">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -9553,10 +9297,10 @@
         <v>19</v>
       </c>
       <c r="C21" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D21" t="n">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -9585,10 +9329,10 @@
         <v>20</v>
       </c>
       <c r="C22" t="n">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D22" t="n">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -9617,10 +9361,10 @@
         <v>21</v>
       </c>
       <c r="C23" t="n">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D23" t="n">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -9649,10 +9393,10 @@
         <v>22</v>
       </c>
       <c r="C24" t="n">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D24" t="n">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -9747,28 +9491,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
@@ -10677,28 +10421,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -10727,10 +10471,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="J3" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -10747,22 +10491,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="F4" t="n">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="G4" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I4" t="n">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="J4" t="n">
-        <v>81</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5">
@@ -10773,28 +10517,28 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="D5" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
+        <v>50</v>
+      </c>
+      <c r="F5" t="n">
+        <v>50</v>
+      </c>
+      <c r="G5" t="n">
         <v>75</v>
       </c>
-      <c r="F5" t="n">
+      <c r="H5" t="n">
         <v>25</v>
       </c>
-      <c r="G5" t="n">
-        <v>100</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="J5" t="n">
-        <v>94</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
@@ -10805,22 +10549,22 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="D6" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="F6" t="n">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="G6" t="n">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="H6" t="n">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -10837,22 +10581,22 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="D7" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F7" t="n">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G7" t="n">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="H7" t="n">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -10869,22 +10613,22 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="D8" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F8" t="n">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G8" t="n">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="H8" t="n">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -10901,22 +10645,22 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="D9" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F9" t="n">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="G9" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="H9" t="n">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -10933,22 +10677,22 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="D10" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="G10" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="H10" t="n">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -10965,22 +10709,22 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="D11" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="G11" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -10997,10 +10741,10 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="D12" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -11009,10 +10753,10 @@
         <v>100</v>
       </c>
       <c r="G12" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -11029,10 +10773,10 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="D13" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -11041,10 +10785,10 @@
         <v>100</v>
       </c>
       <c r="G13" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -11061,10 +10805,10 @@
         <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="D14" t="n">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -11073,10 +10817,10 @@
         <v>100</v>
       </c>
       <c r="G14" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -11093,10 +10837,10 @@
         <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D15" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -11105,10 +10849,10 @@
         <v>100</v>
       </c>
       <c r="G15" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -11137,10 +10881,10 @@
         <v>100</v>
       </c>
       <c r="G16" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -11189,10 +10933,10 @@
         <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="D18" t="n">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -11221,10 +10965,10 @@
         <v>17</v>
       </c>
       <c r="C19" t="n">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="D19" t="n">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -11253,10 +10997,10 @@
         <v>18</v>
       </c>
       <c r="C20" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D20" t="n">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -11285,10 +11029,10 @@
         <v>19</v>
       </c>
       <c r="C21" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D21" t="n">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -11317,10 +11061,10 @@
         <v>20</v>
       </c>
       <c r="C22" t="n">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D22" t="n">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -11349,10 +11093,10 @@
         <v>21</v>
       </c>
       <c r="C23" t="n">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D23" t="n">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -11381,10 +11125,10 @@
         <v>22</v>
       </c>
       <c r="C24" t="n">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D24" t="n">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -11479,28 +11223,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3">
@@ -11529,10 +11273,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4">
@@ -11549,22 +11293,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="F4" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="G4" t="n">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="H4" t="n">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="I4" t="n">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="J4" t="n">
-        <v>50</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5">
@@ -11581,22 +11325,22 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="F5" t="n">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="G5" t="n">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="H5" t="n">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="I5" t="n">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="J5" t="n">
-        <v>75</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6">
@@ -11613,16 +11357,16 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="F6" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G6" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="H6" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -11645,16 +11389,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="F7" t="n">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="G7" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="H7" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -11677,16 +11421,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="F8" t="n">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="G8" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="H8" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -11709,16 +11453,16 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F9" t="n">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G9" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="H9" t="n">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -11735,22 +11479,22 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F10" t="n">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="G10" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="H10" t="n">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -11767,22 +11511,22 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F11" t="n">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H11" t="n">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -11799,10 +11543,10 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -11811,10 +11555,10 @@
         <v>100</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H12" t="n">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -11831,10 +11575,10 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -11863,10 +11607,10 @@
         <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D14" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -11895,10 +11639,10 @@
         <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D15" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -11927,10 +11671,10 @@
         <v>14</v>
       </c>
       <c r="C16" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="D16" t="n">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -11959,10 +11703,10 @@
         <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="D17" t="n">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -11991,10 +11735,10 @@
         <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="D18" t="n">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -12023,10 +11767,10 @@
         <v>17</v>
       </c>
       <c r="C19" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D19" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -12055,10 +11799,10 @@
         <v>18</v>
       </c>
       <c r="C20" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D20" t="n">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -12087,10 +11831,10 @@
         <v>19</v>
       </c>
       <c r="C21" t="n">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="D21" t="n">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -12119,10 +11863,10 @@
         <v>20</v>
       </c>
       <c r="C22" t="n">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="D22" t="n">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -12151,10 +11895,10 @@
         <v>21</v>
       </c>
       <c r="C23" t="n">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="D23" t="n">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -12183,10 +11927,10 @@
         <v>22</v>
       </c>
       <c r="C24" t="n">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="D24" t="n">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -12281,28 +12025,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3">
@@ -12331,10 +12075,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4">
@@ -12351,22 +12095,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="F4" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="G4" t="n">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="H4" t="n">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="I4" t="n">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="J4" t="n">
-        <v>50</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5">
@@ -12383,22 +12127,22 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="F5" t="n">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="G5" t="n">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="H5" t="n">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="I5" t="n">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="J5" t="n">
-        <v>75</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6">
@@ -12415,16 +12159,16 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="F6" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G6" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="H6" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -12447,16 +12191,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="F7" t="n">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="G7" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="H7" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -12479,16 +12223,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="F8" t="n">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="G8" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="H8" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -12511,16 +12255,16 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F9" t="n">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G9" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="H9" t="n">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -12537,22 +12281,22 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F10" t="n">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="G10" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="H10" t="n">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -12569,22 +12313,22 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F11" t="n">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H11" t="n">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -12601,10 +12345,10 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -12613,10 +12357,10 @@
         <v>100</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H12" t="n">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -12633,10 +12377,10 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -12665,10 +12409,10 @@
         <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D14" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -12697,10 +12441,10 @@
         <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D15" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -12729,10 +12473,10 @@
         <v>14</v>
       </c>
       <c r="C16" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="D16" t="n">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -12761,10 +12505,10 @@
         <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="D17" t="n">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -12793,10 +12537,10 @@
         <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="D18" t="n">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -12825,10 +12569,10 @@
         <v>17</v>
       </c>
       <c r="C19" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D19" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -12857,10 +12601,10 @@
         <v>18</v>
       </c>
       <c r="C20" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D20" t="n">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -12889,10 +12633,10 @@
         <v>19</v>
       </c>
       <c r="C21" t="n">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="D21" t="n">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -12921,10 +12665,10 @@
         <v>20</v>
       </c>
       <c r="C22" t="n">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="D22" t="n">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -12953,10 +12697,10 @@
         <v>21</v>
       </c>
       <c r="C23" t="n">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="D23" t="n">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -12985,10 +12729,10 @@
         <v>22</v>
       </c>
       <c r="C24" t="n">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="D24" t="n">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -13020,7 +12764,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13083,28 +12827,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -13133,10 +12877,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="J3" t="n">
-        <v>38</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4">
@@ -13153,22 +12897,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="F4" t="n">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="G4" t="n">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>81</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5">
@@ -13185,22 +12929,22 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F5" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G5" t="n">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6">
@@ -13217,16 +12961,16 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="F6" t="n">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G6" t="n">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="H6" t="n">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -13249,16 +12993,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F7" t="n">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G7" t="n">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="H7" t="n">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -13281,16 +13025,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F8" t="n">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G8" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -13313,16 +13057,16 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="F9" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="G9" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -13339,22 +13083,22 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="D10" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="F10" t="n">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="G10" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -13371,22 +13115,22 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="D11" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="G11" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -13403,10 +13147,10 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="D12" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -13415,10 +13159,10 @@
         <v>100</v>
       </c>
       <c r="G12" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -13435,10 +13179,10 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D13" t="n">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -13456,358 +13200,6 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>12</v>
-      </c>
-      <c r="C14" t="n">
-        <v>56</v>
-      </c>
-      <c r="D14" t="n">
-        <v>44</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>100</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>100</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>13</v>
-      </c>
-      <c r="C15" t="n">
-        <v>44</v>
-      </c>
-      <c r="D15" t="n">
-        <v>56</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>100</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>100</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>14</v>
-      </c>
-      <c r="C16" t="n">
-        <v>38</v>
-      </c>
-      <c r="D16" t="n">
-        <v>62</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>100</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>100</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>15</v>
-      </c>
-      <c r="C17" t="n">
-        <v>38</v>
-      </c>
-      <c r="D17" t="n">
-        <v>62</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>100</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>100</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>16</v>
-      </c>
-      <c r="C18" t="n">
-        <v>31</v>
-      </c>
-      <c r="D18" t="n">
-        <v>69</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>100</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>100</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>17</v>
-      </c>
-      <c r="C19" t="n">
-        <v>25</v>
-      </c>
-      <c r="D19" t="n">
-        <v>75</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>100</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>100</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>18</v>
-      </c>
-      <c r="C20" t="n">
-        <v>12</v>
-      </c>
-      <c r="D20" t="n">
-        <v>88</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>100</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>100</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>19</v>
-      </c>
-      <c r="C21" t="n">
-        <v>6</v>
-      </c>
-      <c r="D21" t="n">
-        <v>94</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>100</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>100</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>20</v>
-      </c>
-      <c r="C22" t="n">
-        <v>6</v>
-      </c>
-      <c r="D22" t="n">
-        <v>94</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>100</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>100</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>21</v>
-      </c>
-      <c r="C23" t="n">
-        <v>6</v>
-      </c>
-      <c r="D23" t="n">
-        <v>94</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>100</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>100</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>22</v>
-      </c>
-      <c r="C24" t="n">
-        <v>6</v>
-      </c>
-      <c r="D24" t="n">
-        <v>94</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>100</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>100</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
         <v>100</v>
       </c>
     </row>
@@ -13822,7 +13214,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13885,28 +13277,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -13935,10 +13327,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="J3" t="n">
-        <v>38</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4">
@@ -13955,22 +13347,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="F4" t="n">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="G4" t="n">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>81</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5">
@@ -13987,22 +13379,22 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F5" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G5" t="n">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6">
@@ -14019,16 +13411,16 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="F6" t="n">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G6" t="n">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="H6" t="n">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -14051,16 +13443,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F7" t="n">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G7" t="n">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="H7" t="n">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -14083,16 +13475,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F8" t="n">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G8" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -14115,16 +13507,16 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="F9" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="G9" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -14141,22 +13533,22 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="D10" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="F10" t="n">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="G10" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -14173,22 +13565,22 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="D11" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="G11" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -14205,10 +13597,10 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="D12" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -14217,10 +13609,10 @@
         <v>100</v>
       </c>
       <c r="G12" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -14237,10 +13629,10 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D13" t="n">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -14258,358 +13650,6 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>12</v>
-      </c>
-      <c r="C14" t="n">
-        <v>56</v>
-      </c>
-      <c r="D14" t="n">
-        <v>44</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>100</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>100</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>13</v>
-      </c>
-      <c r="C15" t="n">
-        <v>44</v>
-      </c>
-      <c r="D15" t="n">
-        <v>56</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>100</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>100</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>14</v>
-      </c>
-      <c r="C16" t="n">
-        <v>38</v>
-      </c>
-      <c r="D16" t="n">
-        <v>62</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>100</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>100</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>15</v>
-      </c>
-      <c r="C17" t="n">
-        <v>38</v>
-      </c>
-      <c r="D17" t="n">
-        <v>62</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>100</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>100</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>16</v>
-      </c>
-      <c r="C18" t="n">
-        <v>31</v>
-      </c>
-      <c r="D18" t="n">
-        <v>69</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>100</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>100</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>17</v>
-      </c>
-      <c r="C19" t="n">
-        <v>25</v>
-      </c>
-      <c r="D19" t="n">
-        <v>75</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>100</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>100</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>18</v>
-      </c>
-      <c r="C20" t="n">
-        <v>12</v>
-      </c>
-      <c r="D20" t="n">
-        <v>88</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>100</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>100</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>19</v>
-      </c>
-      <c r="C21" t="n">
-        <v>6</v>
-      </c>
-      <c r="D21" t="n">
-        <v>94</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>100</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>100</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>20</v>
-      </c>
-      <c r="C22" t="n">
-        <v>6</v>
-      </c>
-      <c r="D22" t="n">
-        <v>94</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>100</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>100</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>21</v>
-      </c>
-      <c r="C23" t="n">
-        <v>6</v>
-      </c>
-      <c r="D23" t="n">
-        <v>94</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>100</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>100</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>22</v>
-      </c>
-      <c r="C24" t="n">
-        <v>6</v>
-      </c>
-      <c r="D24" t="n">
-        <v>94</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>100</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>100</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
         <v>100</v>
       </c>
     </row>
@@ -14687,28 +13727,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -15201,28 +14241,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -15715,28 +14755,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -16325,28 +15365,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -16935,28 +15975,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -17577,28 +16617,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3">
@@ -18379,28 +17419,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -19021,22 +18061,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -19407,22 +18447,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -19793,28 +18833,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -20467,28 +19507,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -21141,22 +20181,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -21431,22 +20471,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -21721,22 +20761,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -22299,22 +21339,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -22877,28 +21917,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -23199,28 +22239,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3">
@@ -24001,28 +23041,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -24323,22 +23363,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -24709,22 +23749,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -25095,22 +24135,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -25481,22 +24521,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -25867,22 +24907,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -26189,22 +25229,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -26511,22 +25551,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -26993,22 +26033,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -27475,28 +26515,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -27925,28 +26965,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3">
@@ -28855,28 +27895,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -29305,28 +28345,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -29755,28 +28795,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -30205,28 +29245,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -30783,28 +29823,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -31361,28 +30401,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3">
@@ -32291,28 +31331,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -33221,28 +32261,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -34151,28 +33191,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
